--- a/FrontEnd/src/assets/excel/mobile-matching.xlsx
+++ b/FrontEnd/src/assets/excel/mobile-matching.xlsx
@@ -21,39 +21,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>CName</t>
-  </si>
-  <si>
-    <t>DOB</t>
-  </si>
-  <si>
-    <t>FName</t>
-  </si>
-  <si>
-    <t>Ladd</t>
-  </si>
-  <si>
-    <t>Padd</t>
-  </si>
-  <si>
-    <t>Alt.No.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>UID</t>
-  </si>
-  <si>
-    <t>Adr</t>
-  </si>
-  <si>
-    <t>DOA</t>
-  </si>
-  <si>
-    <t>Mobile</t>
+    <t>FullName</t>
+  </si>
+  <si>
+    <t>BirthDate</t>
+  </si>
+  <si>
+    <t>MobileNo</t>
+  </si>
+  <si>
+    <t>LocalAddress</t>
+  </si>
+  <si>
+    <t>PermanentAddress</t>
+  </si>
+  <si>
+    <t>AltMobileNo</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>MM/DD/YYYY</t>
   </si>
 </sst>
 </file>
@@ -402,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -415,45 +409,38 @@
     <col min="4" max="4" width="29" customWidth="1"/>
     <col min="5" max="5" width="30.85546875" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" customWidth="1"/>
-    <col min="8" max="8" width="24.140625" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="B2" t="s">
         <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
